--- a/Offline/BusinessManagement/Information/FacultyPayout/SubrotoGhosh/SubrotoGhosh-Payout.xlsx
+++ b/Offline/BusinessManagement/Information/FacultyPayout/SubrotoGhosh/SubrotoGhosh-Payout.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Information\FacultyPayout\SubrotoGhosh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A429CC8-D0F2-4BC5-AC36-D5612960AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639F43C-03AA-427C-A248-02350EAF4D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +49,15 @@
   </si>
   <si>
     <t>Payout Amount</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Poulumi</t>
+  </si>
+  <si>
+    <t>Demo Class</t>
   </si>
 </sst>
 </file>
@@ -361,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,9 +391,10 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -388,16 +407,51 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>45197</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
